--- a/docs/excel/Book1.xlsx
+++ b/docs/excel/Book1.xlsx
@@ -23,15 +23,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Domestic Violance</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>Aggreavated Assualt</t>
+  </si>
+  <si>
+    <t>Labor Code</t>
+  </si>
+  <si>
+    <t>Civil Code</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>ibm.damiler.apple.davidson.(sons fo anarcy)</t>
+  </si>
+  <si>
+    <t>Phycology Manic(int)</t>
+  </si>
+  <si>
+    <t>2013 I was sitting ther in my chair, then …</t>
+  </si>
+  <si>
+    <t>visa websphere tivoli</t>
+  </si>
+  <si>
+    <t>wsam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +119,1091 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16585154239583133"/>
+          <c:y val="7.7902640102070861E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Phycology Manic(int)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ibm.damiler.apple.davidson.(sons fo anarcy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$5:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heart Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="954261456"/>
+        <c:axId val="954262544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="954261456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="954262544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="954262544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="954261456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>432225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2937300" y="609600"/>
+          <a:ext cx="5578050" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11049000" y="895350"/>
+          <a:ext cx="1171575" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11982450" y="1628775"/>
+          <a:ext cx="1762125" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12130730" y="2152650"/>
+          <a:ext cx="1261419" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,14 +1470,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="B3:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="N8">
+        <v>0.2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>